--- a/Post_processing/Table_exp_2.xlsx
+++ b/Post_processing/Table_exp_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
   <si>
     <t>Datetime</t>
   </si>
@@ -77,6 +77,174 @@
   </si>
   <si>
     <t>Exp Costant [dB]</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:52:42</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:54:11</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:54:31</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:54:41</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:54:50</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:55:10</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:55:20</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:55:30</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:55:40</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:55:50</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:56:00</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:56:10</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:56:20</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:56:40</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:56:59</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:57:09</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:57:19</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:57:29</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:57:39</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:57:49</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:57:59</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:58:19</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:58:29</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:58:38</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:58:48</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:59:08</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:59:18</t>
+  </si>
+  <si>
+    <t>2022-05-09  08:59:48</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085242_A28.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085411_A28.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085431_A30.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085441_A28.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085450_A29.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085510_A28.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085520_A29.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085530_A30.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085540_A28.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085550_A29.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085600_A30.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085610_A28.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085620_A29.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085640_A28.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085659_A30.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085709_A28.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085719_A29.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085729_A30.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085739_A28.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085749_A29.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085759_A30.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085819_A29.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085829_A30.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085838_A28.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085848_A29.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085908_A28.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085918_A29.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>SOPHY_20220509_085948_A29.2_S.hdf5</t>
   </si>
 </sst>
 </file>
@@ -434,13 +602,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:V1"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:22">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,6 +671,2930 @@
       </c>
       <c r="V1" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>28.2</v>
+      </c>
+      <c r="E2">
+        <v>202.5</v>
+      </c>
+      <c r="F2">
+        <v>200.4105156561265</v>
+      </c>
+      <c r="G2">
+        <v>0.000189182344491325</v>
+      </c>
+      <c r="H2">
+        <v>-37.23119396727971</v>
+      </c>
+      <c r="I2">
+        <v>0.9238543837341054</v>
+      </c>
+      <c r="J2">
+        <v>2.765824791215807E-15</v>
+      </c>
+      <c r="K2">
+        <v>305184.6073016698</v>
+      </c>
+      <c r="L2">
+        <v>54.8456262517888</v>
+      </c>
+      <c r="M2">
+        <v>330338.4306822805</v>
+      </c>
+      <c r="N2">
+        <v>55.18959101279559</v>
+      </c>
+      <c r="O2">
+        <v>1.194357761675387E+20</v>
+      </c>
+      <c r="P2">
+        <v>200.7713443621423</v>
+      </c>
+      <c r="Q2">
+        <v>28.2</v>
+      </c>
+      <c r="R2">
+        <v>23.25204701948604</v>
+      </c>
+      <c r="S2">
+        <v>6.55</v>
+      </c>
+      <c r="T2">
+        <v>10.36032439064238</v>
+      </c>
+      <c r="U2">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V2">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>28.2</v>
+      </c>
+      <c r="E3">
+        <v>217.5</v>
+      </c>
+      <c r="F3">
+        <v>217.4986984850773</v>
+      </c>
+      <c r="G3">
+        <v>0.0107051864421195</v>
+      </c>
+      <c r="H3">
+        <v>-19.70405764606947</v>
+      </c>
+      <c r="I3">
+        <v>0.9999999692709103</v>
+      </c>
+      <c r="J3">
+        <v>0.6378552384059908</v>
+      </c>
+      <c r="K3">
+        <v>23956363.00889836</v>
+      </c>
+      <c r="L3">
+        <v>73.79420885292409</v>
+      </c>
+      <c r="M3">
+        <v>23956363.74505561</v>
+      </c>
+      <c r="N3">
+        <v>73.79420898637883</v>
+      </c>
+      <c r="O3">
+        <v>37557681.27721722</v>
+      </c>
+      <c r="P3">
+        <v>75.74698772103281</v>
+      </c>
+      <c r="Q3">
+        <v>28.2</v>
+      </c>
+      <c r="R3">
+        <v>27.52162479563881</v>
+      </c>
+      <c r="S3">
+        <v>18.72</v>
+      </c>
+      <c r="T3">
+        <v>18.97089688620396</v>
+      </c>
+      <c r="U3">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V3">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>30.2</v>
+      </c>
+      <c r="E4">
+        <v>217.5</v>
+      </c>
+      <c r="F4">
+        <v>218.4351038133881</v>
+      </c>
+      <c r="G4">
+        <v>0.0007011403494333132</v>
+      </c>
+      <c r="H4">
+        <v>-31.54195039260951</v>
+      </c>
+      <c r="I4">
+        <v>0.9842626677680362</v>
+      </c>
+      <c r="J4">
+        <v>0.2965262828496872</v>
+      </c>
+      <c r="K4">
+        <v>1596227.152522242</v>
+      </c>
+      <c r="L4">
+        <v>62.0309469407443</v>
+      </c>
+      <c r="M4">
+        <v>1621749.157815696</v>
+      </c>
+      <c r="N4">
+        <v>62.09983681070529</v>
+      </c>
+      <c r="O4">
+        <v>5469158.221761341</v>
+      </c>
+      <c r="P4">
+        <v>67.37920487617444</v>
+      </c>
+      <c r="Q4">
+        <v>30.2</v>
+      </c>
+      <c r="R4">
+        <v>29.13379335506593</v>
+      </c>
+      <c r="S4">
+        <v>19.09</v>
+      </c>
+      <c r="T4">
+        <v>18.56319218498441</v>
+      </c>
+      <c r="U4">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V4">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>30.2</v>
+      </c>
+      <c r="E5">
+        <v>217.5</v>
+      </c>
+      <c r="F5">
+        <v>218.7338574878226</v>
+      </c>
+      <c r="G5">
+        <v>0.002739876877470126</v>
+      </c>
+      <c r="H5">
+        <v>-25.62268952740464</v>
+      </c>
+      <c r="I5">
+        <v>0.9727605597918346</v>
+      </c>
+      <c r="J5">
+        <v>0.4167442877768937</v>
+      </c>
+      <c r="K5">
+        <v>6271841.802458425</v>
+      </c>
+      <c r="L5">
+        <v>67.97395095405682</v>
+      </c>
+      <c r="M5">
+        <v>6447467.199739846</v>
+      </c>
+      <c r="N5">
+        <v>68.09389141425217</v>
+      </c>
+      <c r="O5">
+        <v>15471039.1692076</v>
+      </c>
+      <c r="P5">
+        <v>71.89519485664169</v>
+      </c>
+      <c r="Q5">
+        <v>30.2</v>
+      </c>
+      <c r="R5">
+        <v>29.2211176482225</v>
+      </c>
+      <c r="S5">
+        <v>18.3</v>
+      </c>
+      <c r="T5">
+        <v>18.54524356430099</v>
+      </c>
+      <c r="U5">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V5">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>28.2</v>
+      </c>
+      <c r="E6">
+        <v>217.5</v>
+      </c>
+      <c r="F6">
+        <v>218.3551697426282</v>
+      </c>
+      <c r="G6">
+        <v>0.02435159645699518</v>
+      </c>
+      <c r="H6">
+        <v>-16.13472561770244</v>
+      </c>
+      <c r="I6">
+        <v>0.9868211215243525</v>
+      </c>
+      <c r="J6">
+        <v>0.1481294114369481</v>
+      </c>
+      <c r="K6">
+        <v>55358122.56702271</v>
+      </c>
+      <c r="L6">
+        <v>77.43181352897253</v>
+      </c>
+      <c r="M6">
+        <v>56097423.69671867</v>
+      </c>
+      <c r="N6">
+        <v>77.48942916514791</v>
+      </c>
+      <c r="O6">
+        <v>378705505.8987848</v>
+      </c>
+      <c r="P6">
+        <v>85.78301619258872</v>
+      </c>
+      <c r="Q6">
+        <v>28.2</v>
+      </c>
+      <c r="R6">
+        <v>29.60000143821662</v>
+      </c>
+      <c r="S6">
+        <v>19.23</v>
+      </c>
+      <c r="T6">
+        <v>18.71831932414061</v>
+      </c>
+      <c r="U6">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V6">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>28.2</v>
+      </c>
+      <c r="E7">
+        <v>217.5</v>
+      </c>
+      <c r="F7">
+        <v>216.7285692403525</v>
+      </c>
+      <c r="G7">
+        <v>0.0464461940837831</v>
+      </c>
+      <c r="H7">
+        <v>-13.33049867378211</v>
+      </c>
+      <c r="I7">
+        <v>0.9892624998439822</v>
+      </c>
+      <c r="J7">
+        <v>0.1264534720346344</v>
+      </c>
+      <c r="K7">
+        <v>102474259.4374888</v>
+      </c>
+      <c r="L7">
+        <v>80.1061478843402</v>
+      </c>
+      <c r="M7">
+        <v>103586519.7090258</v>
+      </c>
+      <c r="N7">
+        <v>80.15303241925606</v>
+      </c>
+      <c r="O7">
+        <v>819167066.2918177</v>
+      </c>
+      <c r="P7">
+        <v>89.13372483652209</v>
+      </c>
+      <c r="Q7">
+        <v>28.2</v>
+      </c>
+      <c r="R7">
+        <v>29.51222517397799</v>
+      </c>
+      <c r="S7">
+        <v>18.03</v>
+      </c>
+      <c r="T7">
+        <v>18.85701826709106</v>
+      </c>
+      <c r="U7">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V7">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>29.2</v>
+      </c>
+      <c r="E8">
+        <v>217.5</v>
+      </c>
+      <c r="F8">
+        <v>218.5379702673735</v>
+      </c>
+      <c r="G8">
+        <v>0.02199379299381343</v>
+      </c>
+      <c r="H8">
+        <v>-16.576998668542</v>
+      </c>
+      <c r="I8">
+        <v>0.9806454029172471</v>
+      </c>
+      <c r="J8">
+        <v>0.7041527074924014</v>
+      </c>
+      <c r="K8">
+        <v>50165801.30216319</v>
+      </c>
+      <c r="L8">
+        <v>77.00407753656641</v>
+      </c>
+      <c r="M8">
+        <v>51155903.19694436</v>
+      </c>
+      <c r="N8">
+        <v>77.08895756873804</v>
+      </c>
+      <c r="O8">
+        <v>72648876.66074391</v>
+      </c>
+      <c r="P8">
+        <v>78.61228903371659</v>
+      </c>
+      <c r="Q8">
+        <v>29.2</v>
+      </c>
+      <c r="R8">
+        <v>29.76048837331106</v>
+      </c>
+      <c r="S8">
+        <v>19.11</v>
+      </c>
+      <c r="T8">
+        <v>18.80349123780621</v>
+      </c>
+      <c r="U8">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V8">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>29.2</v>
+      </c>
+      <c r="E9">
+        <v>217.5</v>
+      </c>
+      <c r="F9">
+        <v>218.0678540203102</v>
+      </c>
+      <c r="G9">
+        <v>0.03419382703364052</v>
+      </c>
+      <c r="H9">
+        <v>-14.66052289476048</v>
+      </c>
+      <c r="I9">
+        <v>0.9941674938430191</v>
+      </c>
+      <c r="J9">
+        <v>0.6166413775249336</v>
+      </c>
+      <c r="K9">
+        <v>77323999.53677407</v>
+      </c>
+      <c r="L9">
+        <v>78.8831430955502</v>
+      </c>
+      <c r="M9">
+        <v>77777638.08980832</v>
+      </c>
+      <c r="N9">
+        <v>78.90854750586476</v>
+      </c>
+      <c r="O9">
+        <v>126131072.1670853</v>
+      </c>
+      <c r="P9">
+        <v>81.00822087432717</v>
+      </c>
+      <c r="Q9">
+        <v>29.2</v>
+      </c>
+      <c r="R9">
+        <v>29.75172126169428</v>
+      </c>
+      <c r="S9">
+        <v>18.32</v>
+      </c>
+      <c r="T9">
+        <v>18.82803379931683</v>
+      </c>
+      <c r="U9">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V9">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>28.2</v>
+      </c>
+      <c r="E10">
+        <v>217.5</v>
+      </c>
+      <c r="F10">
+        <v>217.3288046406329</v>
+      </c>
+      <c r="G10">
+        <v>0.02809813497789718</v>
+      </c>
+      <c r="H10">
+        <v>-15.51322505564253</v>
+      </c>
+      <c r="I10">
+        <v>0.9994684796096426</v>
+      </c>
+      <c r="J10">
+        <v>0.642062469611331</v>
+      </c>
+      <c r="K10">
+        <v>62682550.55141352</v>
+      </c>
+      <c r="L10">
+        <v>77.97146659587689</v>
+      </c>
+      <c r="M10">
+        <v>62715885.32326216</v>
+      </c>
+      <c r="N10">
+        <v>77.97377557329106</v>
+      </c>
+      <c r="O10">
+        <v>97678790.29158467</v>
+      </c>
+      <c r="P10">
+        <v>79.89800272425947</v>
+      </c>
+      <c r="Q10">
+        <v>28.2</v>
+      </c>
+      <c r="R10">
+        <v>28.86733563993453</v>
+      </c>
+      <c r="S10">
+        <v>19.16</v>
+      </c>
+      <c r="T10">
+        <v>18.89512937891049</v>
+      </c>
+      <c r="U10">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V10">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>29.2</v>
+      </c>
+      <c r="E11">
+        <v>217.5</v>
+      </c>
+      <c r="F11">
+        <v>218.3058399957685</v>
+      </c>
+      <c r="G11">
+        <v>0.01031002875149785</v>
+      </c>
+      <c r="H11">
+        <v>-19.86740123601115</v>
+      </c>
+      <c r="I11">
+        <v>0.9882890121760991</v>
+      </c>
+      <c r="J11">
+        <v>0.8285656635476036</v>
+      </c>
+      <c r="K11">
+        <v>23416462.74705471</v>
+      </c>
+      <c r="L11">
+        <v>73.69521291869647</v>
+      </c>
+      <c r="M11">
+        <v>23693942.21584468</v>
+      </c>
+      <c r="N11">
+        <v>73.74637324975663</v>
+      </c>
+      <c r="O11">
+        <v>28596336.12428038</v>
+      </c>
+      <c r="P11">
+        <v>74.56310393166157</v>
+      </c>
+      <c r="Q11">
+        <v>29.2</v>
+      </c>
+      <c r="R11">
+        <v>29.24049099274599</v>
+      </c>
+      <c r="S11">
+        <v>19.19</v>
+      </c>
+      <c r="T11">
+        <v>18.72399614404808</v>
+      </c>
+      <c r="U11">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V11">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>29.2</v>
+      </c>
+      <c r="E12">
+        <v>217.5</v>
+      </c>
+      <c r="F12">
+        <v>217.9889796592091</v>
+      </c>
+      <c r="G12">
+        <v>0.04310613535274768</v>
+      </c>
+      <c r="H12">
+        <v>-13.65460911736962</v>
+      </c>
+      <c r="I12">
+        <v>0.9956719580360642</v>
+      </c>
+      <c r="J12">
+        <v>0.8784268579228283</v>
+      </c>
+      <c r="K12">
+        <v>97336839.92339024</v>
+      </c>
+      <c r="L12">
+        <v>79.88277242604924</v>
+      </c>
+      <c r="M12">
+        <v>97759949.08542418</v>
+      </c>
+      <c r="N12">
+        <v>79.90160966712666</v>
+      </c>
+      <c r="O12">
+        <v>111289799.7183194</v>
+      </c>
+      <c r="P12">
+        <v>80.46455360839163</v>
+      </c>
+      <c r="Q12">
+        <v>29.2</v>
+      </c>
+      <c r="R12">
+        <v>29.35075223717412</v>
+      </c>
+      <c r="S12">
+        <v>18.4</v>
+      </c>
+      <c r="T12">
+        <v>18.75788874338016</v>
+      </c>
+      <c r="U12">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V12">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>30.2</v>
+      </c>
+      <c r="E13">
+        <v>217.5</v>
+      </c>
+      <c r="F13">
+        <v>217.2271408821374</v>
+      </c>
+      <c r="G13">
+        <v>0.0001184480996323079</v>
+      </c>
+      <c r="H13">
+        <v>-39.26471902656057</v>
+      </c>
+      <c r="I13">
+        <v>0.9986503067003755</v>
+      </c>
+      <c r="J13">
+        <v>0.06816469803011115</v>
+      </c>
+      <c r="K13">
+        <v>263745.1254724192</v>
+      </c>
+      <c r="L13">
+        <v>54.21184441765491</v>
+      </c>
+      <c r="M13">
+        <v>264101.5816075351</v>
+      </c>
+      <c r="N13">
+        <v>54.21771002045123</v>
+      </c>
+      <c r="O13">
+        <v>3874462.723958237</v>
+      </c>
+      <c r="P13">
+        <v>65.88211486920282</v>
+      </c>
+      <c r="Q13">
+        <v>30.2</v>
+      </c>
+      <c r="R13">
+        <v>28.57773106225921</v>
+      </c>
+      <c r="S13">
+        <v>19.5</v>
+      </c>
+      <c r="T13">
+        <v>18.7977933344178</v>
+      </c>
+      <c r="U13">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V13">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>30.2</v>
+      </c>
+      <c r="E14">
+        <v>217.5</v>
+      </c>
+      <c r="F14">
+        <v>217.52168926321</v>
+      </c>
+      <c r="G14">
+        <v>0.001125639490346872</v>
+      </c>
+      <c r="H14">
+        <v>-29.48600679131511</v>
+      </c>
+      <c r="I14">
+        <v>0.9999914662651909</v>
+      </c>
+      <c r="J14">
+        <v>0.1585410563282082</v>
+      </c>
+      <c r="K14">
+        <v>2520052.509236299</v>
+      </c>
+      <c r="L14">
+        <v>64.01409590080746</v>
+      </c>
+      <c r="M14">
+        <v>2520074.014879641</v>
+      </c>
+      <c r="N14">
+        <v>64.01413296250497</v>
+      </c>
+      <c r="O14">
+        <v>15895403.20497574</v>
+      </c>
+      <c r="P14">
+        <v>72.01271548763853</v>
+      </c>
+      <c r="Q14">
+        <v>30.2</v>
+      </c>
+      <c r="R14">
+        <v>28.80152587583483</v>
+      </c>
+      <c r="S14">
+        <v>18.32</v>
+      </c>
+      <c r="T14">
+        <v>18.75250509283724</v>
+      </c>
+      <c r="U14">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V14">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15">
+        <v>28.2</v>
+      </c>
+      <c r="E15">
+        <v>217.5</v>
+      </c>
+      <c r="F15">
+        <v>213.1356891769901</v>
+      </c>
+      <c r="G15">
+        <v>0.002293901848173111</v>
+      </c>
+      <c r="H15">
+        <v>-26.39425168696632</v>
+      </c>
+      <c r="I15">
+        <v>0.7078467948363355</v>
+      </c>
+      <c r="J15">
+        <v>6.317886516362085E-12</v>
+      </c>
+      <c r="K15">
+        <v>4733687.038668481</v>
+      </c>
+      <c r="L15">
+        <v>66.75199541748486</v>
+      </c>
+      <c r="M15">
+        <v>6687445.748430602</v>
+      </c>
+      <c r="N15">
+        <v>68.25260271851297</v>
+      </c>
+      <c r="O15">
+        <v>1.058494123171005E+18</v>
+      </c>
+      <c r="P15">
+        <v>180.246884511306</v>
+      </c>
+      <c r="Q15">
+        <v>28.2</v>
+      </c>
+      <c r="R15">
+        <v>23.21857102621777</v>
+      </c>
+      <c r="S15">
+        <v>19.87</v>
+      </c>
+      <c r="T15">
+        <v>22.14776584359323</v>
+      </c>
+      <c r="U15">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V15">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <v>28.2</v>
+      </c>
+      <c r="E16">
+        <v>217.5</v>
+      </c>
+      <c r="F16">
+        <v>213.1400328881414</v>
+      </c>
+      <c r="G16">
+        <v>0.03127372827548396</v>
+      </c>
+      <c r="H16">
+        <v>-15.04820341560016</v>
+      </c>
+      <c r="I16">
+        <v>0.7083335722115497</v>
+      </c>
+      <c r="J16">
+        <v>1.393570105423508E-13</v>
+      </c>
+      <c r="K16">
+        <v>64541606.65841486</v>
+      </c>
+      <c r="L16">
+        <v>78.0983977225783</v>
+      </c>
+      <c r="M16">
+        <v>91117531.61283025</v>
+      </c>
+      <c r="N16">
+        <v>79.59601946129787</v>
+      </c>
+      <c r="O16">
+        <v>6.538424673306229E+20</v>
+      </c>
+      <c r="P16">
+        <v>208.1547312476131</v>
+      </c>
+      <c r="Q16">
+        <v>28.2</v>
+      </c>
+      <c r="R16">
+        <v>23.21891572721527</v>
+      </c>
+      <c r="S16">
+        <v>19.05</v>
+      </c>
+      <c r="T16">
+        <v>22.15309531904808</v>
+      </c>
+      <c r="U16">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V16">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17">
+        <v>29.2</v>
+      </c>
+      <c r="E17">
+        <v>217.5</v>
+      </c>
+      <c r="F17">
+        <v>218.0889063065798</v>
+      </c>
+      <c r="G17">
+        <v>0.00138618232842002</v>
+      </c>
+      <c r="H17">
+        <v>-28.58179642005006</v>
+      </c>
+      <c r="I17">
+        <v>0.9937283996601276</v>
+      </c>
+      <c r="J17">
+        <v>0.2217648886398626</v>
+      </c>
+      <c r="K17">
+        <v>3135845.492290689</v>
+      </c>
+      <c r="L17">
+        <v>64.96354656213089</v>
+      </c>
+      <c r="M17">
+        <v>3155636.382499687</v>
+      </c>
+      <c r="N17">
+        <v>64.99086954558996</v>
+      </c>
+      <c r="O17">
+        <v>14229648.35350611</v>
+      </c>
+      <c r="P17">
+        <v>71.53194167827161</v>
+      </c>
+      <c r="Q17">
+        <v>29.2</v>
+      </c>
+      <c r="R17">
+        <v>30.28197074479176</v>
+      </c>
+      <c r="S17">
+        <v>19.67</v>
+      </c>
+      <c r="T17">
+        <v>18.90732823476409</v>
+      </c>
+      <c r="U17">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V17">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>29.2</v>
+      </c>
+      <c r="E18">
+        <v>217.5</v>
+      </c>
+      <c r="F18">
+        <v>218.2906927932208</v>
+      </c>
+      <c r="G18">
+        <v>0.02437845131141789</v>
+      </c>
+      <c r="H18">
+        <v>-16.12993887243832</v>
+      </c>
+      <c r="I18">
+        <v>0.9887226637273203</v>
+      </c>
+      <c r="J18">
+        <v>0.3283609460016541</v>
+      </c>
+      <c r="K18">
+        <v>55353742.55380335</v>
+      </c>
+      <c r="L18">
+        <v>77.43146989542056</v>
+      </c>
+      <c r="M18">
+        <v>55985105.41381638</v>
+      </c>
+      <c r="N18">
+        <v>77.48072500274247</v>
+      </c>
+      <c r="O18">
+        <v>170498672.559965</v>
+      </c>
+      <c r="P18">
+        <v>82.31721002084373</v>
+      </c>
+      <c r="Q18">
+        <v>29.2</v>
+      </c>
+      <c r="R18">
+        <v>30.33699028530697</v>
+      </c>
+      <c r="S18">
+        <v>18.84</v>
+      </c>
+      <c r="T18">
+        <v>18.89412441585073</v>
+      </c>
+      <c r="U18">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V18">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>30.2</v>
+      </c>
+      <c r="E19">
+        <v>217.5</v>
+      </c>
+      <c r="F19">
+        <v>217.8576003830387</v>
+      </c>
+      <c r="G19">
+        <v>0.0004702206850083955</v>
+      </c>
+      <c r="H19">
+        <v>-33.27698270176175</v>
+      </c>
+      <c r="I19">
+        <v>0.9976829056882256</v>
+      </c>
+      <c r="J19">
+        <v>0.8509350628661528</v>
+      </c>
+      <c r="K19">
+        <v>1059235.65894618</v>
+      </c>
+      <c r="L19">
+        <v>60.24992592774325</v>
+      </c>
+      <c r="M19">
+        <v>1061695.708032097</v>
+      </c>
+      <c r="N19">
+        <v>60.26000061699511</v>
+      </c>
+      <c r="O19">
+        <v>1247681.232520907</v>
+      </c>
+      <c r="P19">
+        <v>60.9610364252556</v>
+      </c>
+      <c r="Q19">
+        <v>30.2</v>
+      </c>
+      <c r="R19">
+        <v>29.78163338571719</v>
+      </c>
+      <c r="S19">
+        <v>18.74</v>
+      </c>
+      <c r="T19">
+        <v>18.85302328807143</v>
+      </c>
+      <c r="U19">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V19">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>28.2</v>
+      </c>
+      <c r="E20">
+        <v>217.5</v>
+      </c>
+      <c r="F20">
+        <v>217.5424256793808</v>
+      </c>
+      <c r="G20">
+        <v>0.04793614379844507</v>
+      </c>
+      <c r="H20">
+        <v>-13.19336905521721</v>
+      </c>
+      <c r="I20">
+        <v>0.9999673485916463</v>
+      </c>
+      <c r="J20">
+        <v>0.1156736969754061</v>
+      </c>
+      <c r="K20">
+        <v>107359124.5824142</v>
+      </c>
+      <c r="L20">
+        <v>80.30838961556503</v>
+      </c>
+      <c r="M20">
+        <v>107362630.1234923</v>
+      </c>
+      <c r="N20">
+        <v>80.30853142114486</v>
+      </c>
+      <c r="O20">
+        <v>928150763.1447027</v>
+      </c>
+      <c r="P20">
+        <v>89.67618526093648</v>
+      </c>
+      <c r="Q20">
+        <v>28.2</v>
+      </c>
+      <c r="R20">
+        <v>29.7835519935558</v>
+      </c>
+      <c r="S20">
+        <v>18.84</v>
+      </c>
+      <c r="T20">
+        <v>18.88384896759857</v>
+      </c>
+      <c r="U20">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V20">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21">
+        <v>29.2</v>
+      </c>
+      <c r="E21">
+        <v>217.5</v>
+      </c>
+      <c r="F21">
+        <v>218.3508141814222</v>
+      </c>
+      <c r="G21">
+        <v>0.02360953343689654</v>
+      </c>
+      <c r="H21">
+        <v>-16.26912595207736</v>
+      </c>
+      <c r="I21">
+        <v>0.986954148022832</v>
+      </c>
+      <c r="J21">
+        <v>0.4538139609930991</v>
+      </c>
+      <c r="K21">
+        <v>53666919.50437552</v>
+      </c>
+      <c r="L21">
+        <v>77.29706667382307</v>
+      </c>
+      <c r="M21">
+        <v>54376304.72690815</v>
+      </c>
+      <c r="N21">
+        <v>77.35409690724046</v>
+      </c>
+      <c r="O21">
+        <v>119820696.1458707</v>
+      </c>
+      <c r="P21">
+        <v>80.78531838467767</v>
+      </c>
+      <c r="Q21">
+        <v>29.2</v>
+      </c>
+      <c r="R21">
+        <v>30.05745600720233</v>
+      </c>
+      <c r="S21">
+        <v>19.19</v>
+      </c>
+      <c r="T21">
+        <v>18.76107031207271</v>
+      </c>
+      <c r="U21">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V21">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22">
+        <v>29.2</v>
+      </c>
+      <c r="E22">
+        <v>217.5</v>
+      </c>
+      <c r="F22">
+        <v>218.8626492715362</v>
+      </c>
+      <c r="G22">
+        <v>0.04118876992727175</v>
+      </c>
+      <c r="H22">
+        <v>-13.85221177739506</v>
+      </c>
+      <c r="I22">
+        <v>0.9668772957893689</v>
+      </c>
+      <c r="J22">
+        <v>0.3447516775546519</v>
+      </c>
+      <c r="K22">
+        <v>94507316.1250349</v>
+      </c>
+      <c r="L22">
+        <v>79.75465429988033</v>
+      </c>
+      <c r="M22">
+        <v>97744891.24587223</v>
+      </c>
+      <c r="N22">
+        <v>79.90094067738414</v>
+      </c>
+      <c r="O22">
+        <v>283522597.8860601</v>
+      </c>
+      <c r="P22">
+        <v>84.52587679617268</v>
+      </c>
+      <c r="Q22">
+        <v>29.2</v>
+      </c>
+      <c r="R22">
+        <v>30.0469309968044</v>
+      </c>
+      <c r="S22">
+        <v>18</v>
+      </c>
+      <c r="T22">
+        <v>18.72229570401141</v>
+      </c>
+      <c r="U22">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V22">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23">
+        <v>28.2</v>
+      </c>
+      <c r="E23">
+        <v>217.5</v>
+      </c>
+      <c r="F23">
+        <v>216.50277485892</v>
+      </c>
+      <c r="G23">
+        <v>0.03005977759474662</v>
+      </c>
+      <c r="H23">
+        <v>-15.22014236980368</v>
+      </c>
+      <c r="I23">
+        <v>0.982121693574581</v>
+      </c>
+      <c r="J23">
+        <v>0.04582089407009806</v>
+      </c>
+      <c r="K23">
+        <v>66044952.30278878</v>
+      </c>
+      <c r="L23">
+        <v>78.19839630870827</v>
+      </c>
+      <c r="M23">
+        <v>67247218.68469085</v>
+      </c>
+      <c r="N23">
+        <v>78.2767432681764</v>
+      </c>
+      <c r="O23">
+        <v>1467610356.572576</v>
+      </c>
+      <c r="P23">
+        <v>91.66610767806213</v>
+      </c>
+      <c r="Q23">
+        <v>28.2</v>
+      </c>
+      <c r="R23">
+        <v>30.08279164371014</v>
+      </c>
+      <c r="S23">
+        <v>19.33</v>
+      </c>
+      <c r="T23">
+        <v>19.12492296706349</v>
+      </c>
+      <c r="U23">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V23">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24">
+        <v>30.2</v>
+      </c>
+      <c r="E24">
+        <v>217.5</v>
+      </c>
+      <c r="F24">
+        <v>219.4219019548986</v>
+      </c>
+      <c r="G24">
+        <v>0.0006971274960182097</v>
+      </c>
+      <c r="H24">
+        <v>-31.56687787535355</v>
+      </c>
+      <c r="I24">
+        <v>0.9351895668685209</v>
+      </c>
+      <c r="J24">
+        <v>0.5891388319242266</v>
+      </c>
+      <c r="K24">
+        <v>1615965.606934403</v>
+      </c>
+      <c r="L24">
+        <v>62.08432113321269</v>
+      </c>
+      <c r="M24">
+        <v>1727955.127157223</v>
+      </c>
+      <c r="N24">
+        <v>62.37532460202456</v>
+      </c>
+      <c r="O24">
+        <v>2933018.557804839</v>
+      </c>
+      <c r="P24">
+        <v>64.67314810858745</v>
+      </c>
+      <c r="Q24">
+        <v>30.2</v>
+      </c>
+      <c r="R24">
+        <v>30.72357184566549</v>
+      </c>
+      <c r="S24">
+        <v>18.52</v>
+      </c>
+      <c r="T24">
+        <v>19.10433800136646</v>
+      </c>
+      <c r="U24">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V24">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <v>28.2</v>
+      </c>
+      <c r="E25">
+        <v>217.5</v>
+      </c>
+      <c r="F25">
+        <v>218.1180491663369</v>
+      </c>
+      <c r="G25">
+        <v>0.01170517210364416</v>
+      </c>
+      <c r="H25">
+        <v>-19.31622196395935</v>
+      </c>
+      <c r="I25">
+        <v>0.9930945241631179</v>
+      </c>
+      <c r="J25">
+        <v>0.2441551456516122</v>
+      </c>
+      <c r="K25">
+        <v>26493798.1087324</v>
+      </c>
+      <c r="L25">
+        <v>74.23144222526142</v>
+      </c>
+      <c r="M25">
+        <v>26678022.54881907</v>
+      </c>
+      <c r="N25">
+        <v>74.26153635290856</v>
+      </c>
+      <c r="O25">
+        <v>109266681.5504525</v>
+      </c>
+      <c r="P25">
+        <v>80.38487753672344</v>
+      </c>
+      <c r="Q25">
+        <v>28.2</v>
+      </c>
+      <c r="R25">
+        <v>29.26505706320555</v>
+      </c>
+      <c r="S25">
+        <v>19.76</v>
+      </c>
+      <c r="T25">
+        <v>19.04861135972729</v>
+      </c>
+      <c r="U25">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V25">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26">
+        <v>28.2</v>
+      </c>
+      <c r="E26">
+        <v>217.5</v>
+      </c>
+      <c r="F26">
+        <v>218.0845302550781</v>
+      </c>
+      <c r="G26">
+        <v>0.05824078791526855</v>
+      </c>
+      <c r="H26">
+        <v>-12.34772758266814</v>
+      </c>
+      <c r="I26">
+        <v>0.9938209720269057</v>
+      </c>
+      <c r="J26">
+        <v>0.3528803102875575</v>
+      </c>
+      <c r="K26">
+        <v>131742737.1622336</v>
+      </c>
+      <c r="L26">
+        <v>81.19726682349042</v>
+      </c>
+      <c r="M26">
+        <v>132561840.4827414</v>
+      </c>
+      <c r="N26">
+        <v>81.22418525178554</v>
+      </c>
+      <c r="O26">
+        <v>375656664.9318532</v>
+      </c>
+      <c r="P26">
+        <v>85.74791098533019</v>
+      </c>
+      <c r="Q26">
+        <v>28.2</v>
+      </c>
+      <c r="R26">
+        <v>29.18860906737109</v>
+      </c>
+      <c r="S26">
+        <v>18.56</v>
+      </c>
+      <c r="T26">
+        <v>19.04429476895842</v>
+      </c>
+      <c r="U26">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V26">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27">
+        <v>29.2</v>
+      </c>
+      <c r="E27">
+        <v>217.5</v>
+      </c>
+      <c r="F27">
+        <v>204.8085273162561</v>
+      </c>
+      <c r="G27">
+        <v>0.00282511406435971</v>
+      </c>
+      <c r="H27">
+        <v>-25.48964012792526</v>
+      </c>
+      <c r="I27">
+        <v>0.05382765712876895</v>
+      </c>
+      <c r="J27">
+        <v>8.134722571019143E-05</v>
+      </c>
+      <c r="K27">
+        <v>4970821.021515287</v>
+      </c>
+      <c r="L27">
+        <v>66.96428126291759</v>
+      </c>
+      <c r="M27">
+        <v>92346969.69299376</v>
+      </c>
+      <c r="N27">
+        <v>79.654226489132</v>
+      </c>
+      <c r="O27">
+        <v>1135219657299.564</v>
+      </c>
+      <c r="P27">
+        <v>120.5507990269503</v>
+      </c>
+      <c r="Q27">
+        <v>29.2</v>
+      </c>
+      <c r="R27">
+        <v>31.20830759846658</v>
+      </c>
+      <c r="S27">
+        <v>19.54</v>
+      </c>
+      <c r="T27">
+        <v>22.17111010380613</v>
+      </c>
+      <c r="U27">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V27">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>29.2</v>
+      </c>
+      <c r="E28">
+        <v>217.5</v>
+      </c>
+      <c r="F28">
+        <v>218.131396034591</v>
+      </c>
+      <c r="G28">
+        <v>0.0236379752766888</v>
+      </c>
+      <c r="H28">
+        <v>-16.26389725921913</v>
+      </c>
+      <c r="I28">
+        <v>0.9927941428698126</v>
+      </c>
+      <c r="J28">
+        <v>0.3371942925973737</v>
+      </c>
+      <c r="K28">
+        <v>53515919.21250954</v>
+      </c>
+      <c r="L28">
+        <v>77.28482989455992</v>
+      </c>
+      <c r="M28">
+        <v>53904346.23014008</v>
+      </c>
+      <c r="N28">
+        <v>77.31623783139798</v>
+      </c>
+      <c r="O28">
+        <v>159861383.8179772</v>
+      </c>
+      <c r="P28">
+        <v>82.03743568060295</v>
+      </c>
+      <c r="Q28">
+        <v>29.2</v>
+      </c>
+      <c r="R28">
+        <v>30.22369264765509</v>
+      </c>
+      <c r="S28">
+        <v>18.72</v>
+      </c>
+      <c r="T28">
+        <v>19.185665889168</v>
+      </c>
+      <c r="U28">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V28">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <v>30.2</v>
+      </c>
+      <c r="E29">
+        <v>217.5</v>
+      </c>
+      <c r="F29">
+        <v>217.9508931768196</v>
+      </c>
+      <c r="G29">
+        <v>0.0004601169322888675</v>
+      </c>
+      <c r="H29">
+        <v>-33.37131784417635</v>
+      </c>
+      <c r="I29">
+        <v>0.996318726225251</v>
+      </c>
+      <c r="J29">
+        <v>0.7270204998301301</v>
+      </c>
+      <c r="K29">
+        <v>1038252.123617496</v>
+      </c>
+      <c r="L29">
+        <v>60.1630282807897</v>
+      </c>
+      <c r="M29">
+        <v>1042088.336080079</v>
+      </c>
+      <c r="N29">
+        <v>60.17904534938616</v>
+      </c>
+      <c r="O29">
+        <v>1433368.572582982</v>
+      </c>
+      <c r="P29">
+        <v>61.5635787808565</v>
+      </c>
+      <c r="Q29">
+        <v>30.2</v>
+      </c>
+      <c r="R29">
+        <v>29.61842582062017</v>
+      </c>
+      <c r="S29">
+        <v>18.79</v>
+      </c>
+      <c r="T29">
+        <v>18.9707839441742</v>
+      </c>
+      <c r="U29">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V29">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30">
+        <v>28.2</v>
+      </c>
+      <c r="E30">
+        <v>217.5</v>
+      </c>
+      <c r="F30">
+        <v>218.3918602158127</v>
+      </c>
+      <c r="G30">
+        <v>0.03924031667029767</v>
+      </c>
+      <c r="H30">
+        <v>-14.06267496511051</v>
+      </c>
+      <c r="I30">
+        <v>0.9856743127035761</v>
+      </c>
+      <c r="J30">
+        <v>0.1569458169720588</v>
+      </c>
+      <c r="K30">
+        <v>89264400.71703717</v>
+      </c>
+      <c r="L30">
+        <v>79.5067829366308</v>
+      </c>
+      <c r="M30">
+        <v>90561760.17430805</v>
+      </c>
+      <c r="N30">
+        <v>79.56944854950207</v>
+      </c>
+      <c r="O30">
+        <v>577025638.0291476</v>
+      </c>
+      <c r="P30">
+        <v>87.61195109875354</v>
+      </c>
+      <c r="Q30">
+        <v>28.2</v>
+      </c>
+      <c r="R30">
+        <v>29.65533405439113</v>
+      </c>
+      <c r="S30">
+        <v>19.06</v>
+      </c>
+      <c r="T30">
+        <v>18.86879505066807</v>
+      </c>
+      <c r="U30">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V30">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31">
+        <v>29.2</v>
+      </c>
+      <c r="E31">
+        <v>217.5</v>
+      </c>
+      <c r="F31">
+        <v>216.9896199489033</v>
+      </c>
+      <c r="G31">
+        <v>0.0007301964671012206</v>
+      </c>
+      <c r="H31">
+        <v>-31.36560272621784</v>
+      </c>
+      <c r="I31">
+        <v>0.9952857449427118</v>
+      </c>
+      <c r="J31">
+        <v>0.465493392224311</v>
+      </c>
+      <c r="K31">
+        <v>1618808.827725635</v>
+      </c>
+      <c r="L31">
+        <v>62.09195564030672</v>
+      </c>
+      <c r="M31">
+        <v>1626476.452567713</v>
+      </c>
+      <c r="N31">
+        <v>62.11247780133131</v>
+      </c>
+      <c r="O31">
+        <v>3494091.387196212</v>
+      </c>
+      <c r="P31">
+        <v>65.4333425967267</v>
+      </c>
+      <c r="Q31">
+        <v>29.2</v>
+      </c>
+      <c r="R31">
+        <v>30.04175831912269</v>
+      </c>
+      <c r="S31">
+        <v>19.95</v>
+      </c>
+      <c r="T31">
+        <v>19.52445297711242</v>
+      </c>
+      <c r="U31">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V31">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32">
+        <v>29.2</v>
+      </c>
+      <c r="E32">
+        <v>217.5</v>
+      </c>
+      <c r="F32">
+        <v>219.5474509009471</v>
+      </c>
+      <c r="G32">
+        <v>0.01469168695604413</v>
+      </c>
+      <c r="H32">
+        <v>-18.32928333982545</v>
+      </c>
+      <c r="I32">
+        <v>0.9267732471348783</v>
+      </c>
+      <c r="J32">
+        <v>0.4439636840240793</v>
+      </c>
+      <c r="K32">
+        <v>34133848.92990007</v>
+      </c>
+      <c r="L32">
+        <v>75.33185262048644</v>
+      </c>
+      <c r="M32">
+        <v>36830852.67666599</v>
+      </c>
+      <c r="N32">
+        <v>75.66211773388832</v>
+      </c>
+      <c r="O32">
+        <v>82959156.34997837</v>
+      </c>
+      <c r="P32">
+        <v>79.18864326862035</v>
+      </c>
+      <c r="Q32">
+        <v>29.2</v>
+      </c>
+      <c r="R32">
+        <v>30.0423661590643</v>
+      </c>
+      <c r="S32">
+        <v>18.79</v>
+      </c>
+      <c r="T32">
+        <v>19.27493539598824</v>
+      </c>
+      <c r="U32">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V32">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33">
+        <v>30.2</v>
+      </c>
+      <c r="E33">
+        <v>217.5</v>
+      </c>
+      <c r="F33">
+        <v>218.755808401621</v>
+      </c>
+      <c r="G33">
+        <v>0.0001757873095252946</v>
+      </c>
+      <c r="H33">
+        <v>-37.55012480809873</v>
+      </c>
+      <c r="I33">
+        <v>0.9717966513920984</v>
+      </c>
+      <c r="J33">
+        <v>0.627260664915144</v>
+      </c>
+      <c r="K33">
+        <v>402555.6181340007</v>
+      </c>
+      <c r="L33">
+        <v>56.04825892107561</v>
+      </c>
+      <c r="M33">
+        <v>414238.5318547249</v>
+      </c>
+      <c r="N33">
+        <v>56.172504938659</v>
+      </c>
+      <c r="O33">
+        <v>660392.9674288809</v>
+      </c>
+      <c r="P33">
+        <v>58.19802439782923</v>
+      </c>
+      <c r="Q33">
+        <v>30.2</v>
+      </c>
+      <c r="R33">
+        <v>30.65426112643307</v>
+      </c>
+      <c r="S33">
+        <v>18.88</v>
+      </c>
+      <c r="T33">
+        <v>19.45989306269647</v>
+      </c>
+      <c r="U33">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V33">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34">
+        <v>29.2</v>
+      </c>
+      <c r="E34">
+        <v>217.5</v>
+      </c>
+      <c r="F34">
+        <v>223.923854056362</v>
+      </c>
+      <c r="G34">
+        <v>0.03281201239954759</v>
+      </c>
+      <c r="H34">
+        <v>-14.83967133002632</v>
+      </c>
+      <c r="I34">
+        <v>0.4730341132249927</v>
+      </c>
+      <c r="J34">
+        <v>0.1985566924676976</v>
+      </c>
+      <c r="K34">
+        <v>82496269.18765901</v>
+      </c>
+      <c r="L34">
+        <v>79.16434308454777</v>
+      </c>
+      <c r="M34">
+        <v>174398139.3333903</v>
+      </c>
+      <c r="N34">
+        <v>82.41541847101411</v>
+      </c>
+      <c r="O34">
+        <v>878329192.3628436</v>
+      </c>
+      <c r="P34">
+        <v>89.43657317309123</v>
+      </c>
+      <c r="Q34">
+        <v>29.2</v>
+      </c>
+      <c r="R34">
+        <v>27.82977861277137</v>
+      </c>
+      <c r="S34">
+        <v>18.9</v>
+      </c>
+      <c r="T34">
+        <v>18.95860546169963</v>
+      </c>
+      <c r="U34">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V34">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35">
+        <v>29.2</v>
+      </c>
+      <c r="E35">
+        <v>217.5</v>
+      </c>
+      <c r="F35">
+        <v>223.9462310352596</v>
+      </c>
+      <c r="G35">
+        <v>0.02196657392492753</v>
+      </c>
+      <c r="H35">
+        <v>-16.58237673690626</v>
+      </c>
+      <c r="I35">
+        <v>0.4705692503426075</v>
+      </c>
+      <c r="J35">
+        <v>0.1178933331090841</v>
+      </c>
+      <c r="K35">
+        <v>55250645.63512521</v>
+      </c>
+      <c r="L35">
+        <v>77.42337357364096</v>
+      </c>
+      <c r="M35">
+        <v>117412358.7440082</v>
+      </c>
+      <c r="N35">
+        <v>80.69713812855676</v>
+      </c>
+      <c r="O35">
+        <v>995920258.1486865</v>
+      </c>
+      <c r="P35">
+        <v>89.98224566503609</v>
+      </c>
+      <c r="Q35">
+        <v>29.2</v>
+      </c>
+      <c r="R35">
+        <v>27.87222558540253</v>
+      </c>
+      <c r="S35">
+        <v>18.11</v>
+      </c>
+      <c r="T35">
+        <v>18.96115269154546</v>
+      </c>
+      <c r="U35">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V35">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36">
+        <v>30.2</v>
+      </c>
+      <c r="E36">
+        <v>217.5</v>
+      </c>
+      <c r="F36">
+        <v>224.9295561654284</v>
+      </c>
+      <c r="G36">
+        <v>0.000111313880504098</v>
+      </c>
+      <c r="H36">
+        <v>-39.53450677080661</v>
+      </c>
+      <c r="I36">
+        <v>0.3673905629503816</v>
+      </c>
+      <c r="J36">
+        <v>0.06007431683804028</v>
+      </c>
+      <c r="K36">
+        <v>284928.195805111</v>
+      </c>
+      <c r="L36">
+        <v>54.5473542809757</v>
+      </c>
+      <c r="M36">
+        <v>775545.7666548509</v>
+      </c>
+      <c r="N36">
+        <v>58.89607431574738</v>
+      </c>
+      <c r="O36">
+        <v>12909772.55298157</v>
+      </c>
+      <c r="P36">
+        <v>71.10918590844641</v>
+      </c>
+      <c r="Q36">
+        <v>30.2</v>
+      </c>
+      <c r="R36">
+        <v>28.43021697827159</v>
+      </c>
+      <c r="S36">
+        <v>19.12</v>
+      </c>
+      <c r="T36">
+        <v>18.74621495354708</v>
+      </c>
+      <c r="U36">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V36">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37">
+        <v>28.2</v>
+      </c>
+      <c r="E37">
+        <v>217.5</v>
+      </c>
+      <c r="F37">
+        <v>218.0043087940685</v>
+      </c>
+      <c r="G37">
+        <v>0.00657141878853403</v>
+      </c>
+      <c r="H37">
+        <v>-21.82340854867942</v>
+      </c>
+      <c r="I37">
+        <v>0.9953969782765706</v>
+      </c>
+      <c r="J37">
+        <v>0.3660525133158049</v>
+      </c>
+      <c r="K37">
+        <v>14842923.69172402</v>
+      </c>
+      <c r="L37">
+        <v>71.71519454724692</v>
+      </c>
+      <c r="M37">
+        <v>14911561.93524221</v>
+      </c>
+      <c r="N37">
+        <v>71.7352313670106</v>
+      </c>
+      <c r="O37">
+        <v>40736127.72159152</v>
+      </c>
+      <c r="P37">
+        <v>76.09979743636353</v>
+      </c>
+      <c r="Q37">
+        <v>28.2</v>
+      </c>
+      <c r="R37">
+        <v>29.03593298788722</v>
+      </c>
+      <c r="S37">
+        <v>20.04</v>
+      </c>
+      <c r="T37">
+        <v>19.35409397977574</v>
+      </c>
+      <c r="U37">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V37">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38">
+        <v>28.2</v>
+      </c>
+      <c r="E38">
+        <v>217.5</v>
+      </c>
+      <c r="F38">
+        <v>217.8606507788903</v>
+      </c>
+      <c r="G38">
+        <v>0.0383591606249155</v>
+      </c>
+      <c r="H38">
+        <v>-14.1613090462848</v>
+      </c>
+      <c r="I38">
+        <v>0.9976432534381078</v>
+      </c>
+      <c r="J38">
+        <v>0.4413356044283864</v>
+      </c>
+      <c r="K38">
+        <v>86414034.45839864</v>
+      </c>
+      <c r="L38">
+        <v>79.36584281748132</v>
+      </c>
+      <c r="M38">
+        <v>86618171.53636436</v>
+      </c>
+      <c r="N38">
+        <v>79.37609011764538</v>
+      </c>
+      <c r="O38">
+        <v>196263729.1603776</v>
+      </c>
+      <c r="P38">
+        <v>82.92840046513047</v>
+      </c>
+      <c r="Q38">
+        <v>28.2</v>
+      </c>
+      <c r="R38">
+        <v>29.16229718344745</v>
+      </c>
+      <c r="S38">
+        <v>19.21</v>
+      </c>
+      <c r="T38">
+        <v>19.37010893308593</v>
+      </c>
+      <c r="U38">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V38">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39">
+        <v>29.2</v>
+      </c>
+      <c r="E39">
+        <v>217.5</v>
+      </c>
+      <c r="F39">
+        <v>219.2129623199918</v>
+      </c>
+      <c r="G39">
+        <v>0.0007394327592077956</v>
+      </c>
+      <c r="H39">
+        <v>-31.31101312718797</v>
+      </c>
+      <c r="I39">
+        <v>0.9481630082295408</v>
+      </c>
+      <c r="J39">
+        <v>0.4473545909599597</v>
+      </c>
+      <c r="K39">
+        <v>1707511.396303531</v>
+      </c>
+      <c r="L39">
+        <v>62.32363610939351</v>
+      </c>
+      <c r="M39">
+        <v>1800862.701332216</v>
+      </c>
+      <c r="N39">
+        <v>62.55480603254419</v>
+      </c>
+      <c r="O39">
+        <v>4025582.251135099</v>
+      </c>
+      <c r="P39">
+        <v>66.04828704621157</v>
+      </c>
+      <c r="Q39">
+        <v>29.2</v>
+      </c>
+      <c r="R39">
+        <v>29.80635669212621</v>
+      </c>
+      <c r="S39">
+        <v>20.25</v>
+      </c>
+      <c r="T39">
+        <v>19.49619489140002</v>
+      </c>
+      <c r="U39">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V39">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40">
+        <v>29.2</v>
+      </c>
+      <c r="E40">
+        <v>217.5</v>
+      </c>
+      <c r="F40">
+        <v>219.3705446418434</v>
+      </c>
+      <c r="G40">
+        <v>0.0173235409436952</v>
+      </c>
+      <c r="H40">
+        <v>-17.61363333154013</v>
+      </c>
+      <c r="I40">
+        <v>0.9384996604936957</v>
+      </c>
+      <c r="J40">
+        <v>0.597311486606904</v>
+      </c>
+      <c r="K40">
+        <v>40118983.50973327</v>
+      </c>
+      <c r="L40">
+        <v>76.03349920816319</v>
+      </c>
+      <c r="M40">
+        <v>42748000.02445261</v>
+      </c>
+      <c r="N40">
+        <v>76.30915800966831</v>
+      </c>
+      <c r="O40">
+        <v>71567349.67091876</v>
+      </c>
+      <c r="P40">
+        <v>78.54714934433341</v>
+      </c>
+      <c r="Q40">
+        <v>29.2</v>
+      </c>
+      <c r="R40">
+        <v>29.81826328868302</v>
+      </c>
+      <c r="S40">
+        <v>19.01</v>
+      </c>
+      <c r="T40">
+        <v>19.47615455248197</v>
+      </c>
+      <c r="U40">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V40">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41">
+        <v>28.2</v>
+      </c>
+      <c r="E41">
+        <v>217.5</v>
+      </c>
+      <c r="F41">
+        <v>216.5993500505097</v>
+      </c>
+      <c r="G41">
+        <v>0.03637260668563977</v>
+      </c>
+      <c r="H41">
+        <v>-14.39225573605093</v>
+      </c>
+      <c r="I41">
+        <v>0.9853926300411722</v>
+      </c>
+      <c r="J41">
+        <v>0.2381622904724361</v>
+      </c>
+      <c r="K41">
+        <v>80057684.11556277</v>
+      </c>
+      <c r="L41">
+        <v>79.03403022811565</v>
+      </c>
+      <c r="M41">
+        <v>81244451.88129503</v>
+      </c>
+      <c r="N41">
+        <v>79.09793713040344</v>
+      </c>
+      <c r="O41">
+        <v>341130628.6991639</v>
+      </c>
+      <c r="P41">
+        <v>85.32920714651773</v>
+      </c>
+      <c r="Q41">
+        <v>28.2</v>
+      </c>
+      <c r="R41">
+        <v>29.45885233121927</v>
+      </c>
+      <c r="S41">
+        <v>19.37</v>
+      </c>
+      <c r="T41">
+        <v>19.66090356929086</v>
+      </c>
+      <c r="U41">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V41">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42">
+        <v>29.2</v>
+      </c>
+      <c r="E42">
+        <v>217.5</v>
+      </c>
+      <c r="F42">
+        <v>218.2634469619887</v>
+      </c>
+      <c r="G42">
+        <v>0.02256054440181906</v>
+      </c>
+      <c r="H42">
+        <v>-16.46650424730658</v>
+      </c>
+      <c r="I42">
+        <v>0.9894824349314798</v>
+      </c>
+      <c r="J42">
+        <v>0.3863996851178225</v>
+      </c>
+      <c r="K42">
+        <v>51200430.62149449</v>
+      </c>
+      <c r="L42">
+        <v>77.09273613627245</v>
+      </c>
+      <c r="M42">
+        <v>51744658.43351737</v>
+      </c>
+      <c r="N42">
+        <v>77.13865524513876</v>
+      </c>
+      <c r="O42">
+        <v>133914856.6276372</v>
+      </c>
+      <c r="P42">
+        <v>81.26828760682551</v>
+      </c>
+      <c r="Q42">
+        <v>29.2</v>
+      </c>
+      <c r="R42">
+        <v>30.1715843094843</v>
+      </c>
+      <c r="S42">
+        <v>18.37</v>
+      </c>
+      <c r="T42">
+        <v>17.96708922669804</v>
+      </c>
+      <c r="U42">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V42">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43">
+        <v>29.2</v>
+      </c>
+      <c r="E43">
+        <v>217.5</v>
+      </c>
+      <c r="F43">
+        <v>215.2405131208859</v>
+      </c>
+      <c r="G43">
+        <v>0.004346734899598391</v>
+      </c>
+      <c r="H43">
+        <v>-23.61836845926565</v>
+      </c>
+      <c r="I43">
+        <v>0.9115463768315758</v>
+      </c>
+      <c r="J43">
+        <v>0.3061650043766898</v>
+      </c>
+      <c r="K43">
+        <v>9329518.47177493</v>
+      </c>
+      <c r="L43">
+        <v>69.69859228907511</v>
+      </c>
+      <c r="M43">
+        <v>10234825.90562556</v>
+      </c>
+      <c r="N43">
+        <v>70.10080459712819</v>
+      </c>
+      <c r="O43">
+        <v>33429117.49976869</v>
+      </c>
+      <c r="P43">
+        <v>75.24124911739455</v>
+      </c>
+      <c r="Q43">
+        <v>29.2</v>
+      </c>
+      <c r="R43">
+        <v>30.15374893797772</v>
+      </c>
+      <c r="S43">
+        <v>17.54</v>
+      </c>
+      <c r="T43">
+        <v>18.22371700690196</v>
+      </c>
+      <c r="U43">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V43">
+        <v>85.85743731821252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44">
+        <v>29.2</v>
+      </c>
+      <c r="E44">
+        <v>217.5</v>
+      </c>
+      <c r="F44">
+        <v>211.6402346560947</v>
+      </c>
+      <c r="G44">
+        <v>0.0001074207913225598</v>
+      </c>
+      <c r="H44">
+        <v>-39.68911652688919</v>
+      </c>
+      <c r="I44">
+        <v>0.5363916465477042</v>
+      </c>
+      <c r="J44">
+        <v>0.5871587214528308</v>
+      </c>
+      <c r="K44">
+        <v>215516.8768382211</v>
+      </c>
+      <c r="L44">
+        <v>53.33481284848126</v>
+      </c>
+      <c r="M44">
+        <v>401790.1438721492</v>
+      </c>
+      <c r="N44">
+        <v>56.0399927906619</v>
+      </c>
+      <c r="O44">
+        <v>684295.6243211094</v>
+      </c>
+      <c r="P44">
+        <v>58.35243762940528</v>
+      </c>
+      <c r="Q44">
+        <v>29.2</v>
+      </c>
+      <c r="R44">
+        <v>29.4653870654086</v>
+      </c>
+      <c r="S44">
+        <v>13.41</v>
+      </c>
+      <c r="T44">
+        <v>12.66901073997091</v>
+      </c>
+      <c r="U44">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="V44">
+        <v>85.85743731821252</v>
       </c>
     </row>
   </sheetData>
